--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd5</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd5</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H2">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I2">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J2">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.02092</v>
+        <v>5.616015666666666</v>
       </c>
       <c r="N2">
-        <v>12.06276</v>
+        <v>16.848047</v>
       </c>
       <c r="O2">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="P2">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
       <c r="Q2">
-        <v>0.1704937095333333</v>
+        <v>49.28057117109399</v>
       </c>
       <c r="R2">
-        <v>1.5344433858</v>
+        <v>443.5251405398459</v>
       </c>
       <c r="S2">
-        <v>0.0010942674003814</v>
+        <v>0.2838091203032268</v>
       </c>
       <c r="T2">
-        <v>0.0010942674003814</v>
+        <v>0.2838091203032269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H3">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I3">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J3">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.435526000000001</v>
+        <v>8.435525999999999</v>
       </c>
       <c r="N3">
         <v>25.306578</v>
       </c>
       <c r="O3">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="P3">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
       <c r="Q3">
-        <v>0.3576803616100001</v>
+        <v>74.02179126315599</v>
       </c>
       <c r="R3">
-        <v>3.21912325449</v>
+        <v>666.196121368404</v>
       </c>
       <c r="S3">
-        <v>0.002295673902208876</v>
+        <v>0.4262949670110128</v>
       </c>
       <c r="T3">
-        <v>0.002295673902208876</v>
+        <v>0.4262949670110129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H4">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I4">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J4">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.491604333333333</v>
+        <v>2.036951</v>
       </c>
       <c r="N4">
-        <v>4.474813</v>
+        <v>6.110853000000001</v>
       </c>
       <c r="O4">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="P4">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="Q4">
-        <v>0.06324650974055555</v>
+        <v>17.874257246706</v>
       </c>
       <c r="R4">
-        <v>0.569218587665</v>
+        <v>160.868315220354</v>
       </c>
       <c r="S4">
-        <v>0.0004059304826343967</v>
+        <v>0.1029386856667918</v>
       </c>
       <c r="T4">
-        <v>0.0004059304826343967</v>
+        <v>0.1029386856667918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H5">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I5">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J5">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.461233333333334</v>
+        <v>3.542379</v>
       </c>
       <c r="N5">
-        <v>10.3837</v>
+        <v>10.627137</v>
       </c>
       <c r="O5">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007442</v>
       </c>
       <c r="P5">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007443</v>
       </c>
       <c r="Q5">
-        <v>0.1467620620555556</v>
+        <v>31.084396979274</v>
       </c>
       <c r="R5">
-        <v>1.3208585585</v>
+        <v>279.759572813466</v>
       </c>
       <c r="S5">
-        <v>0.0009419522899684939</v>
+        <v>0.1790164998537737</v>
       </c>
       <c r="T5">
-        <v>0.0009419522899684936</v>
+        <v>0.1790164998537738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H6">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.02092</v>
+        <v>5.616015666666666</v>
       </c>
       <c r="N6">
-        <v>12.06276</v>
+        <v>16.848047</v>
       </c>
       <c r="O6">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="P6">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
       <c r="Q6">
-        <v>35.28359712552</v>
+        <v>0.3944558363901111</v>
       </c>
       <c r="R6">
-        <v>317.55237412968</v>
+        <v>3.550102527511</v>
       </c>
       <c r="S6">
-        <v>0.2264581503231286</v>
+        <v>0.002271689659108831</v>
       </c>
       <c r="T6">
-        <v>0.2264581503231286</v>
+        <v>0.002271689659108832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H7">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.435526000000001</v>
+        <v>8.435525999999999</v>
       </c>
       <c r="N7">
         <v>25.306578</v>
       </c>
       <c r="O7">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="P7">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
       <c r="Q7">
-        <v>74.021791263156</v>
+        <v>0.592491663346</v>
       </c>
       <c r="R7">
-        <v>666.1961213684041</v>
+        <v>5.332424970114</v>
       </c>
       <c r="S7">
-        <v>0.475088689892527</v>
+        <v>0.003412187273102398</v>
       </c>
       <c r="T7">
-        <v>0.4750886898925269</v>
+        <v>0.003412187273102399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H8">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I8">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J8">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.491604333333333</v>
+        <v>2.036951</v>
       </c>
       <c r="N8">
-        <v>4.474813</v>
+        <v>6.110853000000001</v>
       </c>
       <c r="O8">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="P8">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="Q8">
-        <v>13.088836974626</v>
+        <v>0.1430706853543333</v>
       </c>
       <c r="R8">
-        <v>117.799532771634</v>
+        <v>1.287636168189</v>
       </c>
       <c r="S8">
-        <v>0.08400713228331574</v>
+        <v>0.0008239507860130125</v>
       </c>
       <c r="T8">
-        <v>0.08400713228331576</v>
+        <v>0.0008239507860130128</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H9">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I9">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J9">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.461233333333334</v>
+        <v>3.542379</v>
       </c>
       <c r="N9">
-        <v>10.3837</v>
+        <v>10.627137</v>
       </c>
       <c r="O9">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007442</v>
       </c>
       <c r="P9">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007443</v>
       </c>
       <c r="Q9">
-        <v>30.3723432674</v>
+        <v>0.2488084354090001</v>
       </c>
       <c r="R9">
-        <v>273.3510894066</v>
+        <v>2.239275918681</v>
       </c>
       <c r="S9">
-        <v>0.1949366061755577</v>
+        <v>0.001432899446970491</v>
       </c>
       <c r="T9">
-        <v>0.1949366061755577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1322</v>
-      </c>
-      <c r="H10">
-        <v>0.3966</v>
-      </c>
-      <c r="I10">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J10">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.02092</v>
-      </c>
-      <c r="N10">
-        <v>12.06276</v>
-      </c>
-      <c r="O10">
-        <v>0.2309641267836197</v>
-      </c>
-      <c r="P10">
-        <v>0.2309641267836197</v>
-      </c>
-      <c r="Q10">
-        <v>0.5315656240000001</v>
-      </c>
-      <c r="R10">
-        <v>4.784090616</v>
-      </c>
-      <c r="S10">
-        <v>0.003411709060109772</v>
-      </c>
-      <c r="T10">
-        <v>0.003411709060109771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1322</v>
-      </c>
-      <c r="H11">
-        <v>0.3966</v>
-      </c>
-      <c r="I11">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J11">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.435526000000001</v>
-      </c>
-      <c r="N11">
-        <v>25.306578</v>
-      </c>
-      <c r="O11">
-        <v>0.4845418204168501</v>
-      </c>
-      <c r="P11">
-        <v>0.48454182041685</v>
-      </c>
-      <c r="Q11">
-        <v>1.1151765372</v>
-      </c>
-      <c r="R11">
-        <v>10.0365888348</v>
-      </c>
-      <c r="S11">
-        <v>0.007157456622114228</v>
-      </c>
-      <c r="T11">
-        <v>0.007157456622114225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1322</v>
-      </c>
-      <c r="H12">
-        <v>0.3966</v>
-      </c>
-      <c r="I12">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J12">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.491604333333333</v>
-      </c>
-      <c r="N12">
-        <v>4.474813</v>
-      </c>
-      <c r="O12">
-        <v>0.08567867362568679</v>
-      </c>
-      <c r="P12">
-        <v>0.0856786736256868</v>
-      </c>
-      <c r="Q12">
-        <v>0.1971900928666667</v>
-      </c>
-      <c r="R12">
-        <v>1.7747108358</v>
-      </c>
-      <c r="S12">
-        <v>0.001265610859736659</v>
-      </c>
-      <c r="T12">
-        <v>0.001265610859736659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1322</v>
-      </c>
-      <c r="H13">
-        <v>0.3966</v>
-      </c>
-      <c r="I13">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J13">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.461233333333334</v>
-      </c>
-      <c r="N13">
-        <v>10.3837</v>
-      </c>
-      <c r="O13">
-        <v>0.1988153791738435</v>
-      </c>
-      <c r="P13">
-        <v>0.1988153791738435</v>
-      </c>
-      <c r="Q13">
-        <v>0.4575750466666668</v>
-      </c>
-      <c r="R13">
-        <v>4.118175420000001</v>
-      </c>
-      <c r="S13">
-        <v>0.00293682070831732</v>
-      </c>
-      <c r="T13">
-        <v>0.002936820708317319</v>
+        <v>0.001432899446970492</v>
       </c>
     </row>
   </sheetData>
